--- a/simact.xlsx
+++ b/simact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\GitHub\Simulacion-Red-Foraneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F2233-81E7-4163-BE80-25C60BCE33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008CCE52-9681-41B6-B04C-6F33503D81E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
   </bookViews>
@@ -1127,29 +1127,17 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1186,6 +1174,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2122,30 +2122,30 @@
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="121" t="s">
+      <c r="N3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="122"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="121" t="s">
+      <c r="R3" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="122"/>
+      <c r="S3" s="118"/>
       <c r="T3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2159,13 +2159,13 @@
         <v>41</v>
       </c>
       <c r="B4" s="27">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="41"/>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="122"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2194,15 +2194,15 @@
       </c>
       <c r="O4" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="P4" s="35">
         <f ca="1">IF(O4="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="6">
         <f ca="1">P4+P5+P6+P7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>29</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="U4" s="6">
         <f ca="1">T4+T5+T6+T7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V4" s="43"/>
     </row>
@@ -2226,7 +2226,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="28">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="5" t="s">
@@ -2234,15 +2234,15 @@
       </c>
       <c r="E5" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F5" s="35">
         <f ca="1">IF(E5="OFF",0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <f ca="1">F5+F6+F7+F8</f>
-        <v>8</v>
+        <v>8.4833566186723459</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="42"/>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B6" s="29">
         <f>B4*B5</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="5" t="s">
@@ -2304,11 +2304,11 @@
       </c>
       <c r="E6" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F6" s="35">
         <f ca="1">IF(E6="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>0</v>
+        <v>5.4833566186723459</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
@@ -2350,11 +2350,11 @@
       </c>
       <c r="S6" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="T6" s="35">
         <f ca="1">IF(S6="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6" s="7">
         <f>U8*0.8</f>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B7" s="30">
         <f>IF(B9="ON",1,(1-B5)*B4)</f>
-        <v>3.9999999999999994E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="5" t="s">
@@ -2376,11 +2376,11 @@
       </c>
       <c r="E7" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F7" s="35">
         <f ca="1">IF(E7="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <f>G9*0.8</f>
@@ -2407,11 +2407,11 @@
       </c>
       <c r="O7" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="P7" s="9">
         <f ca="1">IF(O7="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>36</v>
@@ -2421,11 +2421,11 @@
       </c>
       <c r="S7" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="T7" s="9">
         <f ca="1">IF(S7="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>36</v>
@@ -2445,48 +2445,48 @@
       </c>
       <c r="E8" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F8" s="9">
         <f ca="1">IF(E8="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="108"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M8" s="106">
         <f>$Z$14*(1/12)</f>
         <v>6.25</v>
       </c>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="108"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Q8" s="106">
         <f>$Z$14*(1/12)</f>
         <v>6.25</v>
       </c>
-      <c r="R8" s="107" t="s">
+      <c r="R8" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="108"/>
+      <c r="S8" s="110"/>
       <c r="T8" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U8" s="106">
         <f>$Z$14*(1/12)</f>
@@ -2502,13 +2502,13 @@
         <v>26</v>
       </c>
       <c r="C9" s="41"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G9" s="1">
         <f>$Z$14*(1/12)</f>
@@ -2536,13 +2536,13 @@
       </c>
       <c r="B10" s="31">
         <f ca="1">X14</f>
-        <v>57.86507718536302</v>
+        <v>107.22392803441825</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="122"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2564,10 +2564,10 @@
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
       <c r="V10" s="43"/>
-      <c r="AA10" s="115" t="s">
+      <c r="AA10" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="AB10" s="116"/>
+      <c r="AB10" s="112"/>
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B11" s="32">
         <f ca="1">U25+Q25+M25+G11+G5+M4+Q4+U4</f>
-        <v>35.925341135771674</v>
+        <v>51.034641664677878</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="5" t="s">
@@ -2583,15 +2583,15 @@
       </c>
       <c r="E11" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F11" s="35">
         <f ca="1">IF(E11="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6">
         <f ca="1">F11+F12+F13+F14</f>
-        <v>24.925341135771671</v>
+        <v>11</v>
       </c>
       <c r="H11" s="79"/>
       <c r="I11" s="42"/>
@@ -2609,8 +2609,8 @@
       <c r="U11" s="42"/>
       <c r="V11" s="45"/>
       <c r="Z11" s="36"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="118"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="114"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B12" s="32">
         <f ca="1">G17+G23</f>
-        <v>21.939736049591346</v>
+        <v>56.18928636974038</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="5" t="s">
@@ -2626,11 +2626,11 @@
       </c>
       <c r="E12" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F12" s="35">
         <f ca="1">IF(E12="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>24.925341135771671</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
@@ -2653,8 +2653,8 @@
       <c r="W12" s="50"/>
       <c r="X12" s="49"/>
       <c r="Y12" s="49"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="118"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="114"/>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B13" s="33">
         <f ca="1">B10/B3</f>
-        <v>0.77153436247150697</v>
+        <v>1.4296523737922433</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="5" t="s">
@@ -2670,11 +2670,11 @@
       </c>
       <c r="E13" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F13" s="35">
         <f ca="1">IF(E13="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="7">
         <f>G15*0.8</f>
@@ -2717,8 +2717,8 @@
       <c r="Z13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="118"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="114"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="41"/>
@@ -2727,11 +2727,11 @@
       </c>
       <c r="E14" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F14" s="9">
         <f ca="1">IF(E14="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
@@ -2771,7 +2771,7 @@
       <c r="V14" s="43"/>
       <c r="X14" s="20">
         <f ca="1">U25++Q25+M25+G23+G17+G11+G5+M4+Q4+U4</f>
-        <v>57.86507718536302</v>
+        <v>107.22392803441825</v>
       </c>
       <c r="Y14" s="21">
         <f>Z14*0.8</f>
@@ -2781,18 +2781,18 @@
         <f>B3</f>
         <v>75</v>
       </c>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="120"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="116"/>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="41"/>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="126"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="83">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G15" s="84">
         <f>$Z$14*(1/12)</f>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="K15" s="73">
         <f ca="1">G5+G11+G17+G23</f>
-        <v>54.86507718536302</v>
+        <v>75.672642988412719</v>
       </c>
       <c r="L15" s="74">
         <f>M15*0.8</f>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="R15" s="16">
         <f ca="1">M4+Q4+U4+K15+R21</f>
-        <v>68.834945210158693</v>
+        <v>135.31857121928846</v>
       </c>
       <c r="S15" s="17">
         <f>T15*0.8</f>
@@ -2839,13 +2839,13 @@
       <c r="V15" s="43"/>
     </row>
     <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="124"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="85" t="s">
         <v>33</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="V16" s="43"/>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C17" s="114"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="81" t="s">
         <v>29</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="V17" s="43"/>
     </row>
     <row r="18" spans="3:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="114"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="81" t="s">
         <v>30</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="114"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="81" t="s">
         <v>31</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="114"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="82" t="s">
         <v>32</v>
       </c>
@@ -3003,14 +3003,14 @@
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="114"/>
-      <c r="D21" s="107" t="s">
+      <c r="C21" s="108"/>
+      <c r="D21" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="2">
         <f>$B$7</f>
-        <v>3.9999999999999994E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G21" s="91">
         <f>$Z$14*(1/10)</f>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="R21" s="16">
         <f ca="1">M25+Q25+U25+(G17+G23)*0.5</f>
-        <v>10.969868024795673</v>
+        <v>48.645928230875725</v>
       </c>
       <c r="S21" s="17">
         <f>T21*0.8</f>
@@ -3046,11 +3046,11 @@
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="3:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="114"/>
-      <c r="D22" s="111" t="s">
+      <c r="C22" s="108"/>
+      <c r="D22" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="112"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="80" t="s">
         <v>33</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="114"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="81" t="s">
         <v>29</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G23" s="89">
         <f ca="1">F23+F24+F25+F26</f>
-        <v>21.939736049591346</v>
+        <v>56.18928636974038</v>
       </c>
       <c r="H23" s="100"/>
       <c r="I23" s="99"/>
@@ -3104,44 +3104,44 @@
       <c r="V23" s="43"/>
     </row>
     <row r="24" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="114"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="87"/>
       <c r="F24" s="88">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>21.938477749558203</v>
+        <v>0</v>
       </c>
       <c r="G24" s="90" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="62"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="121" t="s">
+      <c r="J24" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="122"/>
+      <c r="K24" s="118"/>
       <c r="L24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="121" t="s">
+      <c r="N24" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="122"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R24" s="121" t="s">
+      <c r="R24" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="S24" s="122"/>
+      <c r="S24" s="118"/>
       <c r="T24" s="3" t="s">
         <v>33</v>
       </c>
@@ -3151,14 +3151,14 @@
       <c r="V24" s="43"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="114"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="81" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="87"/>
       <c r="F25" s="88">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>1.2583000331424091E-3</v>
+        <v>46.244764271136496</v>
       </c>
       <c r="G25" s="90">
         <f>G27*0.8</f>
@@ -3179,22 +3179,22 @@
       </c>
       <c r="M25" s="6">
         <f ca="1">L25+L26+L27+L28</f>
-        <v>0</v>
+        <v>12.551285046005532</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O25" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="P25" s="35">
         <f ca="1">IF(O25="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="6">
         <f ca="1">P25+P26+P27+P28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>29</v>
@@ -3209,19 +3209,19 @@
       </c>
       <c r="U25" s="6">
         <f ca="1">T25+T26+T27+T28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V25" s="43"/>
     </row>
     <row r="26" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="114"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="82" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="87"/>
       <c r="F26" s="88">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
+        <v>9.9445220986038851</v>
       </c>
       <c r="G26" s="90" t="s">
         <v>36</v>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="K26" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="L26" s="35">
         <f ca="1">IF(K26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>0</v>
+        <v>9.5512850460055319</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>35</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="27" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="93"/>
-      <c r="D27" s="109" t="s">
+      <c r="D27" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="110"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="94">
         <f>$B$7</f>
-        <v>3.9999999999999994E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G27" s="95">
         <f>$Z$14*(1/10)</f>
@@ -3323,11 +3323,11 @@
       </c>
       <c r="S27" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="T27" s="35">
         <f ca="1">IF(S27="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U27" s="7">
         <f>U29*0.8</f>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="K28" s="34" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="L28" s="9">
         <f ca="1">IF(K28="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>36</v>
@@ -3395,37 +3395,37 @@
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="107" t="s">
+      <c r="J29" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="108"/>
+      <c r="K29" s="110"/>
       <c r="L29" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M29" s="1">
         <f>$Z$14*(1/12)</f>
         <v>6.25</v>
       </c>
-      <c r="N29" s="107" t="s">
+      <c r="N29" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="108"/>
+      <c r="O29" s="110"/>
       <c r="P29" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Q29" s="1">
         <f>$Z$14*(1/12)</f>
         <v>6.25</v>
       </c>
-      <c r="R29" s="107" t="s">
+      <c r="R29" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="108"/>
+      <c r="S29" s="110"/>
       <c r="T29" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U29" s="1">
         <f>$Z$14*(1/12)</f>
@@ -3458,6 +3458,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="22">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="C16:C26"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="AA10:AB14"/>
@@ -3474,12 +3480,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:C9">
     <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
@@ -3825,23 +3825,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b1cef329-2b5a-4a44-b669-30c1412e710f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FC769DD51E079F4D9FB4B63A10E31E3C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9c2050f57c8489c735ddd3309b8d8e1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b1cef329-2b5a-4a44-b669-30c1412e710f" xmlns:ns4="2d5053ec-ecb4-4269-816a-1b818bb94825" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ccb341d89c12c77bf92c1068259c56b" ns3:_="" ns4:_="">
     <xsd:import namespace="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
@@ -4068,32 +4051,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D53A6F89-751B-46B0-B6D5-D5B06E5F5D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2d5053ec-ecb4-4269-816a-1b818bb94825"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D4E170-BE59-476B-A29E-764800468E8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b1cef329-2b5a-4a44-b669-30c1412e710f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08759558-1499-4935-A913-0CF7F52514AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4110,4 +4085,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D4E170-BE59-476B-A29E-764800468E8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D53A6F89-751B-46B0-B6D5-D5B06E5F5D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2d5053ec-ecb4-4269-816a-1b818bb94825"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>